--- a/ig/30-modifier-code-prolongee-prorogee/CodeSystem-eclaire-type-contact-code-system.xlsx
+++ b/ig/30-modifier-code-prolongee-prorogee/CodeSystem-eclaire-type-contact-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T12:30:09+00:00</t>
+    <t>2023-07-27T13:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
